--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(E)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(E).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(E)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(E).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ebe
-Ebenus
+          <t>Ebe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ebenus
 Ebenus cretica - Ébène de Crète
 </t>
         </is>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +563,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ecb
-Ecballium
-Ecballium elaterium - Concombre d'âne
-Ecc
-Eccremocarpus - fam. Bignoniacée
-Eccremocarpus scaber - Eccremocarpus grimpant
-Ech
-Echeveria - fam. Crassulacées
+          <t>Ecb</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ecballium
+Ecballium elaterium - Concombre d'âne</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ec</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ecc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eccremocarpus - fam. Bignoniacée
+Eccremocarpus scaber - Eccremocarpus grimpant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ec</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ech</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echeveria - fam. Crassulacées
 Echeveria elegans - Echeveria
 Echeveria gibbiflora - Echeveria
 Echeveria glauca major - Echeveria
@@ -580,67 +670,77 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ei</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eic
-Eichornia - fam. Pontédériacées
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Eic</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eichornia - fam. Pontédériacées
 Eichornia crassipes - Jacinthe d'eau
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>El</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ela
-Elaeagnus - fam. Élaéagnacées
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ela</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elaeagnus - fam. Élaéagnacées
 Elaeagnus angustifolia
 Elaeagnus argentea
 Elaeagnus commutata
@@ -651,9 +751,43 @@
 Elaeis - fam. Arécacées
 Elaeis guineensis - Palmier à huile
 Elatine
-Elatine macropoda - Élatine à longs pédicelles
-Ele
-Eleocharis
+Elatine macropoda - Élatine à longs pédicelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ele</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Eleocharis
 Eleocharis acicularis
 Eleocharis nitida
 Eleocharis robbinsii
@@ -662,14 +796,116 @@
 Eleusine
 Eleusine indica - Éleusine des Indes
 Eleutherococcus
-Eleutherococcus senticosus - Éleuthérocoque
-Eli
-Elizabetha
-Els
-Elsholtzia
-Elsholtzia ciliata
-Ely
-Elymus - fam. Graminées ou Poacées
+Eleutherococcus senticosus - Éleuthérocoque</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Eli</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Elizabetha</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Els</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Elsholtzia
+Elsholtzia ciliata</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ely</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elymus - fam. Graminées ou Poacées
 Elymus arenarius - Élyme des sables ou « Seigle de mer »
 Elymus canadensis - Élyme du Canada
 Elymus riparius - Élyme des rivages
@@ -691,111 +927,229 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emp
-Empetrum
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Emp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empetrum
 Empetrum nigrum
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>En</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enc
-Encyclia - fam. Orchidacées
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Enc</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyclia - fam. Orchidacées
 Encyclia memorale
 Encyclia cordigera
-Ent
-Entada
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ent</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entada
 Enterolobium
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Ep</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epe
-Eperua
-Eph
-Ephedra - fam. Éphédracées
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Eperua</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ep</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Eph</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ephedra - fam. Éphédracées
 Ephedra distachya Raisin de mer
 Ephedra major - Grand Ephédra
-Ephedra sinica
-Epi
-Epilobium - fam. Onagracées
+Ephedra sinica</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ep</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Epi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epilobium - fam. Onagracées
 Epilobium anagallidifolium
 Epilobium arcticum - Épilobe de l'Arctique
 Epilobium ciliatum - Épilobe cilié
@@ -827,66 +1181,76 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Eq'</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equ
-Equisetum - fam. Équisétacées - Prêle
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Equ</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Equisetum - fam. Équisétacées - Prêle
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Er'</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Era
-Eragrostis - fam. Graminées
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Era</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Eragrostis - fam. Graminées
 Eragrostis elegans ou Panicum capillare - Éragrostis élégant
 Eragrostis frankii - Éragrostide de Frank
 Eragrostis hypnoides - Éragrostide hypnoïde
@@ -895,13 +1259,81 @@
 Eragrostis pectinata - Éragrostide pectiné
 Eragrostis poaeoides - Éragrostide faux-pâturin
 Eranthis - fam. Renonculacées
-Eranthis hyemalis - Éranthis
-Ere
-Eremurus - fam. Liliacées
+Eranthis hyemalis - Éranthis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Er'</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ere</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Eremurus - fam. Liliacées
 Eremurus himalaicus - Éremurus de l'Himalaya
-Eremurus robustus - Eremurus
-Eri
-Erica
+Eremurus robustus - Eremurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Er'</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Eri</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Erica
 Erica arborea - Bruyère arborescente
 Erica Cinerea - Bruyère
 Erica darleyensis
@@ -932,20 +1364,156 @@
 Eriophorum scheuchzeri
 Eriophorum vaginatum
 Eriophorum Xmedium
-Eriosema
-Ero
-Erodium - fam. Géraniacées
+Eriosema</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Er'</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ero</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Erodium - fam. Géraniacées
 Erodium crispum - Erodium crépu
 Erodium corsicus - Erodium de Corse
-Erodium cicutarium - Erodium à feuilles de ciguë
-Eru
-Eruca - fam. Crucifères
-Eruca sativa - Roquette cultivée
-Erv
-Ervum - fam. Fabacées
-Ervum hirsutum - Lentille hérissée
-Ery
-Eryngium - fam. Ombellifères ou Apiacées
+Erodium cicutarium - Erodium à feuilles de ciguë</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Er'</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Eru</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Eruca - fam. Crucifères
+Eruca sativa - Roquette cultivée</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Er'</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Erv</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ervum - fam. Fabacées
+Ervum hirsutum - Lentille hérissée</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Er'</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ery</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryngium - fam. Ombellifères ou Apiacées
 Eryngium alpinum - Chardon bleu des Alpes ou « Panicaut des Alpes »
 Eryngium campestre - Panicaut champêtre
 Eryngium giganteum - Panicaut géant
@@ -966,121 +1534,272 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Es</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Esc
-Escallonia
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Esc</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Escallonia
 Eschscholtzia - Papavéracée
 Eschscholtzia californica - Pavot de Californie
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Et</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eta
-Etaballia
-Etl
-Etlingera
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Eta</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Etaballia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Et</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Etl</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Etlingera
 Etlingera clatior voir Nicolaia elatior
 </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Eu</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euc
-Eucalyptus - fam. Myrtacées
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Euc</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Eucalyptus - fam. Myrtacées
 Eucalyptus dalrympleana
 Eucalyptus globulus - Eucalyptus
 Eucalyptus gunnii - Eucalyptus de Gunn
 Eucalyptus microtheca
 Eucalyptus niphophila
 Eucomis - fam. Liliacées
-Eucomis bicolor - Eucomis
-Eug
-Eugenia - fam. Myrtacées
-Eugenia jambos - Pomme rosa
-Euo
-'Euodia
+Eucomis bicolor - Eucomis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Eug</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Eugenia - fam. Myrtacées
+Eugenia jambos - Pomme rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Euo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>'Euodia
 Euodia hupehensis
 Euonymus - fam. Célastracées
 Euonymus japonicus - Fusain du Japon ou Fusain vert
-Euonymus europaeus - Fusain d'Europe
-Eup
-Eupatorium - fam. Astéracées
+Euonymus europaeus - Fusain d'Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Eup</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Eupatorium - fam. Astéracées
 Eupatorium cannabinum - Eupatoire à feuilles de chanvre
 Eupatorium maculatum - Eupatoire macule
 Eupatorium perfoliatum - Eupatoire perfolie
@@ -1102,52 +1821,193 @@
 Euphrasia - fam. Scrophulariacées
 Euphrasia arctica
 Euphrasia oakesii
-Euphrasia officinalis - Euphraise de Rostkov
-Eur
-Euryops
-Euryops athanasiae - Marguerite du Cap
-Eus
-Eustoma
-Eustoma grandiflorum Lisianthus
-Eut
-Euterpe - fam. Arécacées
+Euphrasia officinalis - Euphraise de Rostkov</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Eur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Euryops
+Euryops athanasiae - Marguerite du Cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Eus</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Eustoma
+Eustoma grandiflorum Lisianthus</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Eut</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euterpe - fam. Arécacées
 Euterpe oleracea - Pinot
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Ev</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eva
-Evax
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Evax
 Evax nana - Evax nain
-Evax rotundifolia - Evax à feuilles rondes
-Evo
-Evonymus
+Evax rotundifolia - Evax à feuilles rondes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ev</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Evo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evonymus
 Evonymus alatus
 Evonymus oxyphyllus
 Evonymus phellomanus
@@ -1156,37 +2016,76 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Ex</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exa
-Exacum
-Exacum affine
-Exo
-Exochorda
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Exa</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Exacum
+Exacum affine</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ex</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Exo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exochorda
 Exochorda macrantha
 Exochorda racemosa
 Exostyles
